--- a/testData/Userdata.xlsx
+++ b/testData/Userdata.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sachin.Burkul\git\PetStoreAutomation2\PetStoreAutomation\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89B1129-19AF-45E3-A1FB-4DD3B3B755F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6E7D65-43EE-498A-8A03-5ACBA42B4A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -421,13 +421,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
